--- a/data/pca/factorExposure/factorExposure_2018-03-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-03-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.007163583701789111</v>
+        <v>-0.01203012237873654</v>
       </c>
       <c r="C2">
-        <v>-0.02585944755942914</v>
+        <v>0.02535168114092636</v>
       </c>
       <c r="D2">
-        <v>-0.01931070302158529</v>
+        <v>0.02380211986514103</v>
       </c>
       <c r="E2">
-        <v>-0.008225584934064455</v>
+        <v>-0.02298814799773087</v>
       </c>
       <c r="F2">
-        <v>0.08124411153210795</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.004399704708762348</v>
+      </c>
+      <c r="G2">
+        <v>-0.0150198756262586</v>
+      </c>
+      <c r="H2">
+        <v>-0.04645803200832343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.08870415460160916</v>
+        <v>-0.05404173010948989</v>
       </c>
       <c r="C3">
-        <v>-0.05298329731828633</v>
+        <v>0.07826941483811273</v>
       </c>
       <c r="D3">
-        <v>0.005554177705432045</v>
+        <v>0.004552989898710287</v>
       </c>
       <c r="E3">
-        <v>-0.03454352169521819</v>
+        <v>-0.03495888871370097</v>
       </c>
       <c r="F3">
-        <v>0.3038865874357465</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.08744090816206211</v>
+      </c>
+      <c r="G3">
+        <v>-0.08068656728322406</v>
+      </c>
+      <c r="H3">
+        <v>-0.1112053375720729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04525119202771589</v>
+        <v>-0.03513197519628171</v>
       </c>
       <c r="C4">
-        <v>-0.01383397334931626</v>
+        <v>0.06308924475252681</v>
       </c>
       <c r="D4">
-        <v>-0.03025919076053994</v>
+        <v>0.01632574544055147</v>
       </c>
       <c r="E4">
-        <v>0.03804012392350042</v>
+        <v>0.02312147621145926</v>
       </c>
       <c r="F4">
-        <v>0.05802952737330052</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.005540661130551138</v>
+      </c>
+      <c r="G4">
+        <v>-0.04705135570870585</v>
+      </c>
+      <c r="H4">
+        <v>-0.05394229649873847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03462157808282623</v>
+        <v>-0.01992181209085674</v>
       </c>
       <c r="C6">
-        <v>-0.01760949957766058</v>
+        <v>0.0647378851373176</v>
       </c>
       <c r="D6">
-        <v>-0.03940953090212679</v>
+        <v>0.01149262630159423</v>
       </c>
       <c r="E6">
-        <v>0.0277229675165329</v>
+        <v>0.009733691902136431</v>
       </c>
       <c r="F6">
-        <v>0.02012413533191553</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01807032465571011</v>
+      </c>
+      <c r="G6">
+        <v>-0.02641003656388551</v>
+      </c>
+      <c r="H6">
+        <v>-0.05379713210714512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04135084985422411</v>
+        <v>-0.008388522130264298</v>
       </c>
       <c r="C7">
-        <v>0.03124953003966315</v>
+        <v>0.03390328126761252</v>
       </c>
       <c r="D7">
-        <v>-0.02220529741524515</v>
+        <v>0.009905218165354923</v>
       </c>
       <c r="E7">
-        <v>0.008532990312707864</v>
+        <v>0.04066787090537835</v>
       </c>
       <c r="F7">
-        <v>0.02628482325018638</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02445253869815965</v>
+      </c>
+      <c r="G7">
+        <v>-0.006891473061545277</v>
+      </c>
+      <c r="H7">
+        <v>-0.03572286258605186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01489364392237193</v>
+        <v>0.003155034949720505</v>
       </c>
       <c r="C8">
-        <v>0.001385242663216821</v>
+        <v>0.009283055754558595</v>
       </c>
       <c r="D8">
-        <v>-0.03695278098557121</v>
+        <v>0.001542288686955458</v>
       </c>
       <c r="E8">
-        <v>0.02702989086461378</v>
+        <v>0.007125653776414898</v>
       </c>
       <c r="F8">
-        <v>0.05129103149247582</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.01761088288089848</v>
+      </c>
+      <c r="G8">
+        <v>-0.02988970027403317</v>
+      </c>
+      <c r="H8">
+        <v>-0.02522667384629056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0321506328130487</v>
+        <v>-0.01985746336164595</v>
       </c>
       <c r="C9">
-        <v>-0.006619143914311013</v>
+        <v>0.04819562745435647</v>
       </c>
       <c r="D9">
-        <v>-0.03049614255814407</v>
+        <v>0.01124386870730905</v>
       </c>
       <c r="E9">
-        <v>0.01174269220306148</v>
+        <v>0.005156035245257029</v>
       </c>
       <c r="F9">
-        <v>0.07267988726295281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01450486534515721</v>
+      </c>
+      <c r="G9">
+        <v>-0.03218218171805675</v>
+      </c>
+      <c r="H9">
+        <v>-0.05277472551639358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03603853295845661</v>
+        <v>-0.1390366761569126</v>
       </c>
       <c r="C10">
-        <v>-0.003339532404221825</v>
+        <v>-0.1383869498618113</v>
       </c>
       <c r="D10">
-        <v>0.1443306370014945</v>
+        <v>-0.02479277595715054</v>
       </c>
       <c r="E10">
-        <v>-0.05415827213617544</v>
+        <v>-0.01787193671080825</v>
       </c>
       <c r="F10">
-        <v>0.05020387459444547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.04932618189399236</v>
+      </c>
+      <c r="G10">
+        <v>-0.001908019845855189</v>
+      </c>
+      <c r="H10">
+        <v>0.008478078763774315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02829647500330683</v>
+        <v>-0.01358914226145694</v>
       </c>
       <c r="C11">
-        <v>-0.0241001509011187</v>
+        <v>0.05005184528160204</v>
       </c>
       <c r="D11">
-        <v>-0.0338195304397855</v>
+        <v>-0.001567147326864515</v>
       </c>
       <c r="E11">
-        <v>0.02420859136132111</v>
+        <v>0.000673802896804681</v>
       </c>
       <c r="F11">
-        <v>0.02130021255544327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.006578827003124233</v>
+      </c>
+      <c r="G11">
+        <v>-0.0143277165849556</v>
+      </c>
+      <c r="H11">
+        <v>-0.04841782596122649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04125832708172731</v>
+        <v>-0.01747474452380524</v>
       </c>
       <c r="C12">
-        <v>-0.02529821350186766</v>
+        <v>0.04797987275802851</v>
       </c>
       <c r="D12">
-        <v>-0.02726604782233596</v>
+        <v>0.002212977729235065</v>
       </c>
       <c r="E12">
-        <v>0.03267167866670724</v>
+        <v>0.01432743599915952</v>
       </c>
       <c r="F12">
-        <v>-0.004292897104536474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.006381042031961224</v>
+      </c>
+      <c r="G12">
+        <v>-0.007742372604954264</v>
+      </c>
+      <c r="H12">
+        <v>-0.01825238718389337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.005593842006539163</v>
+        <v>-0.01515484276172903</v>
       </c>
       <c r="C13">
-        <v>-0.01882439530745188</v>
+        <v>0.02489343837139591</v>
       </c>
       <c r="D13">
-        <v>-0.00890820788408707</v>
+        <v>0.01971169287622531</v>
       </c>
       <c r="E13">
-        <v>0.01002912792797296</v>
+        <v>-0.01630053722967154</v>
       </c>
       <c r="F13">
-        <v>0.0671986763892972</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.004638671649774466</v>
+      </c>
+      <c r="G13">
+        <v>-0.04140142485622061</v>
+      </c>
+      <c r="H13">
+        <v>-0.06832379763337931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0251405351339931</v>
+        <v>-0.007408552102601462</v>
       </c>
       <c r="C14">
-        <v>0.003122391855240031</v>
+        <v>0.02130220575519602</v>
       </c>
       <c r="D14">
-        <v>-0.01398342581460222</v>
+        <v>0.005694731850571882</v>
       </c>
       <c r="E14">
-        <v>0.01601465167221359</v>
+        <v>0.01391153424477445</v>
       </c>
       <c r="F14">
-        <v>0.04071571867581934</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.01589305758003799</v>
+      </c>
+      <c r="G14">
+        <v>-0.02323275977471039</v>
+      </c>
+      <c r="H14">
+        <v>-0.01739073088326516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02990339626262707</v>
+        <v>-0.01559978221052232</v>
       </c>
       <c r="C16">
-        <v>-0.02347679811602058</v>
+        <v>0.04378270161439105</v>
       </c>
       <c r="D16">
-        <v>-0.03719013467251347</v>
+        <v>-0.002074378584869426</v>
       </c>
       <c r="E16">
-        <v>0.02506533884565415</v>
+        <v>0.004898294279562973</v>
       </c>
       <c r="F16">
-        <v>0.02710505011783671</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.00415928230399356</v>
+      </c>
+      <c r="G16">
+        <v>-0.01616083625932347</v>
+      </c>
+      <c r="H16">
+        <v>-0.03740116293108849</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03467038562786998</v>
+        <v>-0.01626676125517978</v>
       </c>
       <c r="C19">
-        <v>-0.01603822388104056</v>
+        <v>0.04326021210896615</v>
       </c>
       <c r="D19">
-        <v>-0.03476352865048252</v>
+        <v>0.00996793745147561</v>
       </c>
       <c r="E19">
-        <v>0.03890248913796078</v>
+        <v>0.007864229267150049</v>
       </c>
       <c r="F19">
-        <v>0.06881681947356801</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.01634905943404199</v>
+      </c>
+      <c r="G19">
+        <v>-0.0464472170981473</v>
+      </c>
+      <c r="H19">
+        <v>-0.05350722107674105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002883759662150381</v>
+        <v>-0.003716948375628721</v>
       </c>
       <c r="C20">
-        <v>0.01009448584480734</v>
+        <v>0.02142896911214435</v>
       </c>
       <c r="D20">
-        <v>-0.002412402303945091</v>
+        <v>0.009702613383600761</v>
       </c>
       <c r="E20">
-        <v>0.01386579624083789</v>
+        <v>-0.0007965951820106414</v>
       </c>
       <c r="F20">
-        <v>0.04282265637773457</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01881893583100598</v>
+      </c>
+      <c r="G20">
+        <v>-0.03513813143257782</v>
+      </c>
+      <c r="H20">
+        <v>-0.02928295945230598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02111867246628505</v>
+        <v>-0.008926898812843776</v>
       </c>
       <c r="C21">
-        <v>0.01129814659431831</v>
+        <v>0.02156654757352545</v>
       </c>
       <c r="D21">
-        <v>-0.02859005559916446</v>
+        <v>0.01185725287351163</v>
       </c>
       <c r="E21">
-        <v>0.01264385783007862</v>
+        <v>0.01117561880972419</v>
       </c>
       <c r="F21">
-        <v>0.01603579120713881</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.02122153558413805</v>
+      </c>
+      <c r="G21">
+        <v>-0.02086134029809504</v>
+      </c>
+      <c r="H21">
+        <v>-0.04301254323791672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02534301380408035</v>
+        <v>-0.009182152987956832</v>
       </c>
       <c r="C24">
-        <v>-0.01996087118982394</v>
+        <v>0.04196001460622005</v>
       </c>
       <c r="D24">
-        <v>-0.01750683729673961</v>
+        <v>0.003551243654331763</v>
       </c>
       <c r="E24">
-        <v>0.02148650755452514</v>
+        <v>0.005005995576563288</v>
       </c>
       <c r="F24">
-        <v>0.02504141471199296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.008401045877332034</v>
+      </c>
+      <c r="G24">
+        <v>-0.00766268203677593</v>
+      </c>
+      <c r="H24">
+        <v>-0.04329532064734611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03054515923293018</v>
+        <v>-0.02367314348394271</v>
       </c>
       <c r="C25">
-        <v>-0.02011394753944657</v>
+        <v>0.04991225047578442</v>
       </c>
       <c r="D25">
-        <v>-0.02758189411475851</v>
+        <v>0.006254279285249415</v>
       </c>
       <c r="E25">
-        <v>0.02039755931275783</v>
+        <v>0.01138726478039253</v>
       </c>
       <c r="F25">
-        <v>0.02997815214657025</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01000156430984687</v>
+      </c>
+      <c r="G25">
+        <v>-0.01736390071840104</v>
+      </c>
+      <c r="H25">
+        <v>-0.04026325768627796</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01398805710178632</v>
+        <v>-0.006691302870634283</v>
       </c>
       <c r="C26">
-        <v>-0.004903853686168844</v>
+        <v>0.005912517805764124</v>
       </c>
       <c r="D26">
-        <v>-0.01254998077240337</v>
+        <v>0.02204834420991854</v>
       </c>
       <c r="E26">
-        <v>-0.0100605959286207</v>
+        <v>0.003169058868719534</v>
       </c>
       <c r="F26">
-        <v>0.04890271288672291</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.0128625048420132</v>
+      </c>
+      <c r="G26">
+        <v>-0.008763506088127046</v>
+      </c>
+      <c r="H26">
+        <v>-0.02063708376354941</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.02863134876887478</v>
+        <v>-0.008462928824117005</v>
       </c>
       <c r="C27">
-        <v>-0.007776237466222494</v>
+        <v>0.009279598882883308</v>
       </c>
       <c r="D27">
-        <v>0.0030173695921648</v>
+        <v>-0.001959749351003051</v>
       </c>
       <c r="E27">
-        <v>0.03148034616161809</v>
+        <v>0.009847648648127826</v>
       </c>
       <c r="F27">
-        <v>0.003213875231385717</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.005880002276646117</v>
+      </c>
+      <c r="G27">
+        <v>-0.008008470620794421</v>
+      </c>
+      <c r="H27">
+        <v>0.01019151733562371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07441828030033819</v>
+        <v>-0.1927923238441031</v>
       </c>
       <c r="C28">
-        <v>-0.01106682908559494</v>
+        <v>-0.1776539615042296</v>
       </c>
       <c r="D28">
-        <v>0.211535461052929</v>
+        <v>-0.02000550015057618</v>
       </c>
       <c r="E28">
-        <v>-0.08975068120818507</v>
+        <v>-0.0002563543203203683</v>
       </c>
       <c r="F28">
-        <v>0.05045765711955053</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.04966351219973814</v>
+      </c>
+      <c r="G28">
+        <v>0.00835392799640077</v>
+      </c>
+      <c r="H28">
+        <v>0.009230181551750228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02534880146957075</v>
+        <v>-0.01256844674907233</v>
       </c>
       <c r="C29">
-        <v>-0.0002606974974438076</v>
+        <v>0.01900592085328531</v>
       </c>
       <c r="D29">
-        <v>-0.01500783949577128</v>
+        <v>0.004502605261835497</v>
       </c>
       <c r="E29">
-        <v>0.01767898066363938</v>
+        <v>0.01106715061581877</v>
       </c>
       <c r="F29">
-        <v>0.03856992043376439</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.01665658943573317</v>
+      </c>
+      <c r="G29">
+        <v>-0.02284828287518984</v>
+      </c>
+      <c r="H29">
+        <v>-0.01005457820942572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03057011933120341</v>
+        <v>-0.02254050672315159</v>
       </c>
       <c r="C30">
-        <v>-0.06883413967943523</v>
+        <v>0.08761150872525689</v>
       </c>
       <c r="D30">
-        <v>-0.05215792986154761</v>
+        <v>0.02134481364200895</v>
       </c>
       <c r="E30">
-        <v>0.02651821911614772</v>
+        <v>-0.02905766537894033</v>
       </c>
       <c r="F30">
-        <v>0.07781295222606782</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.01626285436826849</v>
+      </c>
+      <c r="G30">
+        <v>-0.04980746228905945</v>
+      </c>
+      <c r="H30">
+        <v>-0.07438056037499433</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04698213421744905</v>
+        <v>-0.03741835680264256</v>
       </c>
       <c r="C31">
-        <v>-0.02812892826308373</v>
+        <v>0.03380202457088834</v>
       </c>
       <c r="D31">
-        <v>-0.01522548316138841</v>
+        <v>-0.001302505852316077</v>
       </c>
       <c r="E31">
-        <v>0.02368079121939047</v>
+        <v>0.005762784310960938</v>
       </c>
       <c r="F31">
-        <v>0.03100567641167662</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01060282881278406</v>
+      </c>
+      <c r="G31">
+        <v>-0.008712035094210343</v>
+      </c>
+      <c r="H31">
+        <v>-0.003932494958959837</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02525214129046956</v>
+        <v>-0.001893823390969003</v>
       </c>
       <c r="C32">
-        <v>0.01604276406488635</v>
+        <v>0.01264406088720097</v>
       </c>
       <c r="D32">
-        <v>-0.05329840284511733</v>
+        <v>-0.00879747140258676</v>
       </c>
       <c r="E32">
-        <v>0.0414131801291634</v>
+        <v>0.03287988578532598</v>
       </c>
       <c r="F32">
-        <v>0.03573621099279097</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.008946117931403177</v>
+      </c>
+      <c r="G32">
+        <v>-0.04722245656885112</v>
+      </c>
+      <c r="H32">
+        <v>-0.04949456108169723</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0289466505593043</v>
+        <v>-0.0174981940110859</v>
       </c>
       <c r="C33">
-        <v>-0.04119462247457736</v>
+        <v>0.04803226287524072</v>
       </c>
       <c r="D33">
-        <v>-0.04405683935606081</v>
+        <v>0.009800204685804399</v>
       </c>
       <c r="E33">
-        <v>0.00932750343141913</v>
+        <v>-0.02316868081446875</v>
       </c>
       <c r="F33">
-        <v>0.05313130922169648</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01636554882712289</v>
+      </c>
+      <c r="G33">
+        <v>-0.01762217383905196</v>
+      </c>
+      <c r="H33">
+        <v>-0.04933229985282635</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03370160809455861</v>
+        <v>-0.02224807956052104</v>
       </c>
       <c r="C34">
-        <v>-0.01513887136242939</v>
+        <v>0.05057299819977289</v>
       </c>
       <c r="D34">
-        <v>-0.03563162099228947</v>
+        <v>-0.009801722517565399</v>
       </c>
       <c r="E34">
-        <v>0.0314529844903706</v>
+        <v>0.01947067924419233</v>
       </c>
       <c r="F34">
-        <v>0.02153524300546951</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01040150081026542</v>
+      </c>
+      <c r="G34">
+        <v>-0.01069355956395065</v>
+      </c>
+      <c r="H34">
+        <v>-0.0336495948311186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01967514958861097</v>
+        <v>-0.01417240001882667</v>
       </c>
       <c r="C36">
-        <v>0.0007993104145117545</v>
+        <v>0.006896614745150327</v>
       </c>
       <c r="D36">
-        <v>-0.004350440288410837</v>
+        <v>0.008530398820407764</v>
       </c>
       <c r="E36">
-        <v>0.01159740566674723</v>
+        <v>0.006856446085924132</v>
       </c>
       <c r="F36">
-        <v>0.02549965274958407</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.0116720081366989</v>
+      </c>
+      <c r="G36">
+        <v>-0.008593136122138334</v>
+      </c>
+      <c r="H36">
+        <v>-0.01433476726623232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01257109655193747</v>
+        <v>-0.02594667950068695</v>
       </c>
       <c r="C38">
-        <v>-0.009798885963645388</v>
+        <v>0.02229356180952154</v>
       </c>
       <c r="D38">
-        <v>0.002924899419327972</v>
+        <v>-0.01166357526203898</v>
       </c>
       <c r="E38">
-        <v>-0.01818384237293381</v>
+        <v>0.000391105863549385</v>
       </c>
       <c r="F38">
-        <v>0.04322030940730442</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.001536827532236436</v>
+      </c>
+      <c r="G38">
+        <v>-0.0147782760151611</v>
+      </c>
+      <c r="H38">
+        <v>-0.03578656412621156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02527868891471902</v>
+        <v>-0.001128324837641685</v>
       </c>
       <c r="C39">
-        <v>-0.02075919471750472</v>
+        <v>0.08792325583173609</v>
       </c>
       <c r="D39">
-        <v>-0.05821113286199208</v>
+        <v>0.008435966972000431</v>
       </c>
       <c r="E39">
-        <v>0.02370237958284653</v>
+        <v>-0.004088381351983859</v>
       </c>
       <c r="F39">
-        <v>0.04292148923101278</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.009051397547553923</v>
+      </c>
+      <c r="G39">
+        <v>-0.02346678186623152</v>
+      </c>
+      <c r="H39">
+        <v>-0.07818864386482696</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01127441382639155</v>
+        <v>-0.01979864070818394</v>
       </c>
       <c r="C40">
-        <v>-0.0435583710536282</v>
+        <v>0.02985648361336117</v>
       </c>
       <c r="D40">
-        <v>-0.01624259735020771</v>
+        <v>0.007395493733045951</v>
       </c>
       <c r="E40">
-        <v>0.03155340553304256</v>
+        <v>-0.01240466470239769</v>
       </c>
       <c r="F40">
-        <v>0.02914267310345618</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02583861994102071</v>
+      </c>
+      <c r="G40">
+        <v>-0.02183546171034546</v>
+      </c>
+      <c r="H40">
+        <v>-0.04877938387545439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.008775972708545883</v>
+        <v>-0.01277832494332612</v>
       </c>
       <c r="C41">
-        <v>-0.00165986534051502</v>
+        <v>-0.007705544135083618</v>
       </c>
       <c r="D41">
-        <v>-0.003511533507250543</v>
+        <v>0.001876433755524309</v>
       </c>
       <c r="E41">
-        <v>-0.01344503770364678</v>
+        <v>0.002865268496860245</v>
       </c>
       <c r="F41">
-        <v>0.003337078570002395</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.005681880128149107</v>
+      </c>
+      <c r="G41">
+        <v>0.009243678240345098</v>
+      </c>
+      <c r="H41">
+        <v>0.001931632841039817</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2275053266141258</v>
+        <v>-0.08160422090924639</v>
       </c>
       <c r="C42">
-        <v>-0.2893275063562081</v>
+        <v>0.2138455051455606</v>
       </c>
       <c r="D42">
-        <v>-0.2836245160215402</v>
+        <v>0.1193710699830865</v>
       </c>
       <c r="E42">
-        <v>-0.8175416544980011</v>
+        <v>-0.3418067776776973</v>
       </c>
       <c r="F42">
-        <v>-0.2759034832643293</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.3367555377767307</v>
+      </c>
+      <c r="G42">
+        <v>0.8256454294411166</v>
+      </c>
+      <c r="H42">
+        <v>-0.06220820805906369</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01125922052397155</v>
+        <v>-0.0137929162833826</v>
       </c>
       <c r="C43">
-        <v>-0.006034186080255572</v>
+        <v>-0.005855324483764103</v>
       </c>
       <c r="D43">
-        <v>-0.005774213548617453</v>
+        <v>0.002532942127887407</v>
       </c>
       <c r="E43">
-        <v>-0.001450720200312116</v>
+        <v>0.002716117752387079</v>
       </c>
       <c r="F43">
-        <v>0.02384319053877482</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.003887955202334369</v>
+      </c>
+      <c r="G43">
+        <v>0.008363768005105588</v>
+      </c>
+      <c r="H43">
+        <v>-0.007885903763109591</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02622638474448366</v>
+        <v>-0.007462225103519524</v>
       </c>
       <c r="C44">
-        <v>0.006307920564923217</v>
+        <v>0.03966696011528614</v>
       </c>
       <c r="D44">
-        <v>-0.02925162662123726</v>
+        <v>0.003086771532816556</v>
       </c>
       <c r="E44">
-        <v>-0.00600233594911936</v>
+        <v>0.006222256734317207</v>
       </c>
       <c r="F44">
-        <v>0.08558775819200257</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02989340094079913</v>
+      </c>
+      <c r="G44">
+        <v>-0.0176056568840783</v>
+      </c>
+      <c r="H44">
+        <v>-0.06133255311998823</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01895064194553933</v>
+        <v>-0.003734694970119967</v>
       </c>
       <c r="C46">
-        <v>-0.009153584580173716</v>
+        <v>0.01341512545345064</v>
       </c>
       <c r="D46">
-        <v>-0.04329747219275586</v>
+        <v>0.009975049646828122</v>
       </c>
       <c r="E46">
-        <v>0.02158862748709929</v>
+        <v>0.003849416053162314</v>
       </c>
       <c r="F46">
-        <v>0.05477507402810113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01214369692418649</v>
+      </c>
+      <c r="G46">
+        <v>-0.0152689990043301</v>
+      </c>
+      <c r="H46">
+        <v>-0.01566676966177252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07419733632587019</v>
+        <v>-0.05281190207171198</v>
       </c>
       <c r="C47">
-        <v>-0.04882162504288143</v>
+        <v>0.06938141433334227</v>
       </c>
       <c r="D47">
-        <v>-0.00447958453173132</v>
+        <v>-0.01124597741062862</v>
       </c>
       <c r="E47">
-        <v>0.03621228350469329</v>
+        <v>0.01244856807975339</v>
       </c>
       <c r="F47">
-        <v>0.00287713737302771</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-6.548177898742259e-05</v>
+      </c>
+      <c r="G47">
+        <v>-0.003953004006469049</v>
+      </c>
+      <c r="H47">
+        <v>0.0351510355579774</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01832273438155805</v>
+        <v>-0.01350878825517454</v>
       </c>
       <c r="C48">
-        <v>-0.009432454211088265</v>
+        <v>0.01587205639180223</v>
       </c>
       <c r="D48">
-        <v>-0.01262200450004107</v>
+        <v>-0.0007615932210075985</v>
       </c>
       <c r="E48">
-        <v>0.01098534030927702</v>
+        <v>0.002255564654011593</v>
       </c>
       <c r="F48">
-        <v>0.02974576460267689</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.006260481564928731</v>
+      </c>
+      <c r="G48">
+        <v>-0.01000412680341517</v>
+      </c>
+      <c r="H48">
+        <v>-0.01890858991179688</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08363151284864835</v>
+        <v>-0.05627180687689309</v>
       </c>
       <c r="C50">
-        <v>-0.02597397078623025</v>
+        <v>0.06506352577807027</v>
       </c>
       <c r="D50">
-        <v>-0.02696195790107579</v>
+        <v>-0.009447128198883976</v>
       </c>
       <c r="E50">
-        <v>0.0210723125076037</v>
+        <v>0.02570675867882581</v>
       </c>
       <c r="F50">
-        <v>0.01747916366959971</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.01720163850451015</v>
+      </c>
+      <c r="G50">
+        <v>-0.001968232993436472</v>
+      </c>
+      <c r="H50">
+        <v>0.01839780202620631</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01656131983017817</v>
+        <v>-0.01333088693839804</v>
       </c>
       <c r="C51">
-        <v>0.003119748248629509</v>
+        <v>0.01703537595355938</v>
       </c>
       <c r="D51">
-        <v>0.004644831645628176</v>
+        <v>0.004665127726040978</v>
       </c>
       <c r="E51">
-        <v>0.003324644874318974</v>
+        <v>0.009295646935490537</v>
       </c>
       <c r="F51">
-        <v>0.09232156112739888</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01224560146488529</v>
+      </c>
+      <c r="G51">
+        <v>-0.01950332719025445</v>
+      </c>
+      <c r="H51">
+        <v>-0.0502311175059881</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08661054611685498</v>
+        <v>-0.06989720346453641</v>
       </c>
       <c r="C53">
-        <v>-0.05220411050223516</v>
+        <v>0.1067719965512606</v>
       </c>
       <c r="D53">
-        <v>-0.03648824141512646</v>
+        <v>-0.01291884279056883</v>
       </c>
       <c r="E53">
-        <v>0.05058942310623565</v>
+        <v>0.02217002276438469</v>
       </c>
       <c r="F53">
-        <v>-0.0301344282666506</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.01810080375501161</v>
+      </c>
+      <c r="G53">
+        <v>0.002966495444364592</v>
+      </c>
+      <c r="H53">
+        <v>0.0368036732190249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02648739319607255</v>
+        <v>-0.02377504394816784</v>
       </c>
       <c r="C54">
-        <v>-0.0008208202211693593</v>
+        <v>0.0012416753098039</v>
       </c>
       <c r="D54">
-        <v>0.004852240442931114</v>
+        <v>-0.007086306545634635</v>
       </c>
       <c r="E54">
-        <v>0.02198593052985748</v>
+        <v>0.004367008365314147</v>
       </c>
       <c r="F54">
-        <v>0.0290268442836754</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02111495907565916</v>
+      </c>
+      <c r="G54">
+        <v>-0.02436413405269767</v>
+      </c>
+      <c r="H54">
+        <v>-0.008288978218243079</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08010919053535556</v>
+        <v>-0.05021543598192174</v>
       </c>
       <c r="C55">
-        <v>-0.04789742803093595</v>
+        <v>0.09520436046450742</v>
       </c>
       <c r="D55">
-        <v>-0.04163817265514672</v>
+        <v>-0.01016824749819948</v>
       </c>
       <c r="E55">
-        <v>0.03727743774596714</v>
+        <v>0.01387983280768567</v>
       </c>
       <c r="F55">
-        <v>-0.03307663979388026</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.001003567422348572</v>
+      </c>
+      <c r="G55">
+        <v>-0.0009984240319385262</v>
+      </c>
+      <c r="H55">
+        <v>0.03937783745357116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.118879696305347</v>
+        <v>-0.09421017154560822</v>
       </c>
       <c r="C56">
-        <v>-0.07928806243267289</v>
+        <v>0.1364664242655582</v>
       </c>
       <c r="D56">
-        <v>-0.01613191978760979</v>
+        <v>-0.02259537230903257</v>
       </c>
       <c r="E56">
-        <v>0.08320888062526552</v>
+        <v>0.03189475086234236</v>
       </c>
       <c r="F56">
-        <v>-0.05477218220102796</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.04052543050619215</v>
+      </c>
+      <c r="G56">
+        <v>0.008197445078521107</v>
+      </c>
+      <c r="H56">
+        <v>0.08151036914627997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03287319896153208</v>
+        <v>-0.02170187138178052</v>
       </c>
       <c r="C57">
-        <v>-0.02276420487634883</v>
+        <v>0.03026274055670484</v>
       </c>
       <c r="D57">
-        <v>-0.02104152625719785</v>
+        <v>0.0216959369352887</v>
       </c>
       <c r="E57">
-        <v>-0.03337339073959628</v>
+        <v>-0.01665853086543721</v>
       </c>
       <c r="F57">
-        <v>0.05583096149836504</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.04011470905118175</v>
+      </c>
+      <c r="G57">
+        <v>-0.03322595970559687</v>
+      </c>
+      <c r="H57">
+        <v>-0.06285899654974578</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1366476432317829</v>
+        <v>-0.08443051184253962</v>
       </c>
       <c r="C58">
-        <v>-0.2314573717115578</v>
+        <v>0.1819612523942349</v>
       </c>
       <c r="D58">
-        <v>-0.1803731136066122</v>
+        <v>-0.001559842423009106</v>
       </c>
       <c r="E58">
-        <v>0.01453599523306178</v>
+        <v>-0.5426885661593953</v>
       </c>
       <c r="F58">
-        <v>0.5850777693518654</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.5685855036742453</v>
+      </c>
+      <c r="G58">
+        <v>-0.5037402383188849</v>
+      </c>
+      <c r="H58">
+        <v>0.1539703119083687</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05699778311783059</v>
+        <v>-0.2128142106967684</v>
       </c>
       <c r="C59">
-        <v>-0.03420101986034711</v>
+        <v>-0.1634481790045092</v>
       </c>
       <c r="D59">
-        <v>0.1879102295449676</v>
+        <v>-0.02867601381106784</v>
       </c>
       <c r="E59">
-        <v>-0.04383221515422603</v>
+        <v>-0.01235264026684667</v>
       </c>
       <c r="F59">
-        <v>0.08215076041974144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.009520749037647165</v>
+      </c>
+      <c r="G59">
+        <v>-0.01014479064072374</v>
+      </c>
+      <c r="H59">
+        <v>-0.02117044353341431</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1234588761464714</v>
+        <v>-0.2182659576396503</v>
       </c>
       <c r="C60">
-        <v>-0.1164231389671297</v>
+        <v>0.07795550309395179</v>
       </c>
       <c r="D60">
-        <v>0.01429798263070767</v>
+        <v>-0.01302321172250354</v>
       </c>
       <c r="E60">
-        <v>-0.0187491754881383</v>
+        <v>-0.02570028793262731</v>
       </c>
       <c r="F60">
-        <v>0.1812325514071246</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1306540850963122</v>
+      </c>
+      <c r="G60">
+        <v>-0.0530642883518484</v>
+      </c>
+      <c r="H60">
+        <v>-0.3904126229736592</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02141486129019273</v>
+        <v>-0.01198809779485309</v>
       </c>
       <c r="C61">
-        <v>-0.01441917734056464</v>
+        <v>0.06285185170538206</v>
       </c>
       <c r="D61">
-        <v>-0.04139524719264456</v>
+        <v>0.001046698717472658</v>
       </c>
       <c r="E61">
-        <v>0.007956986737998982</v>
+        <v>0.005306806993515947</v>
       </c>
       <c r="F61">
-        <v>0.01973217318535866</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.008409063668837802</v>
+      </c>
+      <c r="G61">
+        <v>-0.02015152159182388</v>
+      </c>
+      <c r="H61">
+        <v>-0.05786589510849916</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01702366549869755</v>
+        <v>-0.007191801759830983</v>
       </c>
       <c r="C63">
-        <v>-0.005628082206690064</v>
+        <v>0.02375992902154333</v>
       </c>
       <c r="D63">
-        <v>-0.01785694939971815</v>
+        <v>0.005962604482010664</v>
       </c>
       <c r="E63">
-        <v>0.003043590228310007</v>
+        <v>0.01018047862683773</v>
       </c>
       <c r="F63">
-        <v>-0.001154126494173815</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.004368523010288783</v>
+      </c>
+      <c r="G63">
+        <v>-0.009003244969817954</v>
+      </c>
+      <c r="H63">
+        <v>-0.01180404160358359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04058086350422065</v>
+        <v>-0.03413288438760607</v>
       </c>
       <c r="C64">
-        <v>-0.00894662069061862</v>
+        <v>0.04557674787097478</v>
       </c>
       <c r="D64">
-        <v>-0.02570502727187821</v>
+        <v>-5.56619989937026e-05</v>
       </c>
       <c r="E64">
-        <v>0.02177111511599488</v>
+        <v>0.02167554384688702</v>
       </c>
       <c r="F64">
-        <v>0.007906929781566067</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.01001499133699825</v>
+      </c>
+      <c r="G64">
+        <v>0.01264277045661805</v>
+      </c>
+      <c r="H64">
+        <v>-0.03986591756661148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03879078903896449</v>
+        <v>-0.03909283218282736</v>
       </c>
       <c r="C65">
-        <v>-0.01968863859688701</v>
+        <v>0.08359822264426239</v>
       </c>
       <c r="D65">
-        <v>-0.03958232078854654</v>
+        <v>0.01044411599726054</v>
       </c>
       <c r="E65">
-        <v>0.03229333783181482</v>
+        <v>0.01575500192919981</v>
       </c>
       <c r="F65">
-        <v>0.01305155199715729</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.03538039282098</v>
+      </c>
+      <c r="G65">
+        <v>-0.02835231300547638</v>
+      </c>
+      <c r="H65">
+        <v>-0.06516736951297282</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03215240940202425</v>
+        <v>-0.009996756773187445</v>
       </c>
       <c r="C66">
-        <v>-0.03341766080535605</v>
+        <v>0.1182026275472828</v>
       </c>
       <c r="D66">
-        <v>-0.06315168033911048</v>
+        <v>0.004924877884368017</v>
       </c>
       <c r="E66">
-        <v>0.05134416904433024</v>
+        <v>0.0007536466159398345</v>
       </c>
       <c r="F66">
-        <v>0.03194233145211955</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.03147813197280659</v>
+      </c>
+      <c r="G66">
+        <v>-0.03934450654944295</v>
+      </c>
+      <c r="H66">
+        <v>-0.08722848637809079</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02081931139715313</v>
+        <v>-0.04792548797078236</v>
       </c>
       <c r="C67">
-        <v>-0.01483349969359469</v>
+        <v>0.03010142026332984</v>
       </c>
       <c r="D67">
-        <v>0.01162787763485828</v>
+        <v>-0.01204098574345631</v>
       </c>
       <c r="E67">
-        <v>-0.01143246844271548</v>
+        <v>0.006241093915669166</v>
       </c>
       <c r="F67">
-        <v>0.0281003161111911</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01112095888713396</v>
+      </c>
+      <c r="G67">
+        <v>-0.01573904403820824</v>
+      </c>
+      <c r="H67">
+        <v>-0.03464220989901863</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06740882853396696</v>
+        <v>-0.2098200012921168</v>
       </c>
       <c r="C68">
-        <v>-0.02675404942069652</v>
+        <v>-0.2021720983657533</v>
       </c>
       <c r="D68">
-        <v>0.2101161788952261</v>
+        <v>-0.00857376026013937</v>
       </c>
       <c r="E68">
-        <v>-0.05733529490890727</v>
+        <v>-0.02307670564539844</v>
       </c>
       <c r="F68">
-        <v>0.07744998666018232</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.05802597199151668</v>
+      </c>
+      <c r="G68">
+        <v>0.007182699208778482</v>
+      </c>
+      <c r="H68">
+        <v>0.03492053863254274</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05940229002622536</v>
+        <v>-0.0547450121023324</v>
       </c>
       <c r="C69">
-        <v>-0.03954156015396014</v>
+        <v>0.06345372948654204</v>
       </c>
       <c r="D69">
-        <v>-0.008700421578458796</v>
+        <v>-0.01568746613406026</v>
       </c>
       <c r="E69">
-        <v>0.03775010206338929</v>
+        <v>0.01944208635363659</v>
       </c>
       <c r="F69">
-        <v>0.003451097568147536</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02119201717629488</v>
+      </c>
+      <c r="G69">
+        <v>-0.005576491313934739</v>
+      </c>
+      <c r="H69">
+        <v>0.003009773116076121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07120577050508023</v>
+        <v>-0.1853337602004819</v>
       </c>
       <c r="C71">
-        <v>-0.03503822098125647</v>
+        <v>-0.1578950598425483</v>
       </c>
       <c r="D71">
-        <v>0.2148365351736647</v>
+        <v>-0.01384774052153066</v>
       </c>
       <c r="E71">
-        <v>-0.09860103055587918</v>
+        <v>-0.02673550033159892</v>
       </c>
       <c r="F71">
-        <v>0.08083296616076727</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.06211616575179885</v>
+      </c>
+      <c r="G71">
+        <v>0.01411504085790925</v>
+      </c>
+      <c r="H71">
+        <v>0.01128086275137439</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09768469338187401</v>
+        <v>-0.05293608728818579</v>
       </c>
       <c r="C72">
-        <v>-0.08211284017191378</v>
+        <v>0.1123065672143223</v>
       </c>
       <c r="D72">
-        <v>-0.06925320269129069</v>
+        <v>-0.01656697988786612</v>
       </c>
       <c r="E72">
-        <v>0.08597877831124538</v>
+        <v>-0.0006966297584375531</v>
       </c>
       <c r="F72">
-        <v>0.09069013287944093</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.04180562930111503</v>
+      </c>
+      <c r="G72">
+        <v>-0.05799568029080806</v>
+      </c>
+      <c r="H72">
+        <v>-0.09348509785147688</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1443017950047745</v>
+        <v>-0.2802288303979019</v>
       </c>
       <c r="C73">
-        <v>-0.1935529495626591</v>
+        <v>0.1585484942829356</v>
       </c>
       <c r="D73">
-        <v>0.006456091691208786</v>
+        <v>-0.01223162957380057</v>
       </c>
       <c r="E73">
-        <v>-0.03949237345168391</v>
+        <v>-0.06102909795856083</v>
       </c>
       <c r="F73">
-        <v>0.2047091973246939</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1773953231725552</v>
+      </c>
+      <c r="G73">
+        <v>-0.05491463483803</v>
+      </c>
+      <c r="H73">
+        <v>-0.471936750842652</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1099676436812723</v>
+        <v>-0.09195220298109587</v>
       </c>
       <c r="C74">
-        <v>-0.07401327950544492</v>
+        <v>0.1399563725384103</v>
       </c>
       <c r="D74">
-        <v>-0.02212005133185682</v>
+        <v>-0.02235146091450055</v>
       </c>
       <c r="E74">
-        <v>0.05743524437428164</v>
+        <v>0.02825803726543322</v>
       </c>
       <c r="F74">
-        <v>-0.07080993510969882</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.02781722097489557</v>
+      </c>
+      <c r="G74">
+        <v>0.001448373063074807</v>
+      </c>
+      <c r="H74">
+        <v>0.0530053225290217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1956351554667597</v>
+        <v>-0.1977728083054085</v>
       </c>
       <c r="C75">
-        <v>-0.1520853935123127</v>
+        <v>0.2345530198173525</v>
       </c>
       <c r="D75">
-        <v>-0.0118019626128</v>
+        <v>-0.04821653320823322</v>
       </c>
       <c r="E75">
-        <v>0.1693178632432349</v>
+        <v>0.04061864302287905</v>
       </c>
       <c r="F75">
-        <v>-0.107580886961572</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.08514519591160701</v>
+      </c>
+      <c r="G75">
+        <v>-0.005460512584805777</v>
+      </c>
+      <c r="H75">
+        <v>0.1746629347840477</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2481804602222827</v>
+        <v>-0.1450358867405815</v>
       </c>
       <c r="C76">
-        <v>-0.1434219472171085</v>
+        <v>0.205585124166292</v>
       </c>
       <c r="D76">
-        <v>-0.01429323950652824</v>
+        <v>-0.04089974240843317</v>
       </c>
       <c r="E76">
-        <v>0.191951074527334</v>
+        <v>0.07848550820230497</v>
       </c>
       <c r="F76">
-        <v>-0.2064639683897411</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.06035607582251563</v>
+      </c>
+      <c r="G76">
+        <v>0.01118359879188848</v>
+      </c>
+      <c r="H76">
+        <v>0.1516679604823789</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.09114888083694556</v>
+        <v>-0.04451663058905515</v>
       </c>
       <c r="C77">
-        <v>-0.07883709676443418</v>
+        <v>0.08827217769271879</v>
       </c>
       <c r="D77">
-        <v>-0.06235082051072977</v>
+        <v>0.007510731951011249</v>
       </c>
       <c r="E77">
-        <v>-0.03098186207825051</v>
+        <v>-0.0215832217770536</v>
       </c>
       <c r="F77">
-        <v>0.09630742603392743</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.04411770016281963</v>
+      </c>
+      <c r="G77">
+        <v>-0.01539462232034026</v>
+      </c>
+      <c r="H77">
+        <v>-0.01447007337040776</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05615425999241746</v>
+        <v>-0.02042179680159685</v>
       </c>
       <c r="C78">
-        <v>-0.02772103932007402</v>
+        <v>0.07638727601369594</v>
       </c>
       <c r="D78">
-        <v>-0.09976784720292475</v>
+        <v>0.002373525603528717</v>
       </c>
       <c r="E78">
-        <v>0.03211714339868837</v>
+        <v>0.004332884771119403</v>
       </c>
       <c r="F78">
-        <v>0.06937371138012201</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.01135071932129965</v>
+      </c>
+      <c r="G78">
+        <v>-0.03700332444674966</v>
+      </c>
+      <c r="H78">
+        <v>-0.08870811104023048</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.6348737894361353</v>
+        <v>-0.1003740229461137</v>
       </c>
       <c r="C80">
-        <v>0.742970289787704</v>
+        <v>0.1135689907025838</v>
       </c>
       <c r="D80">
-        <v>-0.08630716084254994</v>
+        <v>-0.006474499137627559</v>
       </c>
       <c r="E80">
-        <v>-0.0805515543054547</v>
+        <v>0.7284559874446893</v>
       </c>
       <c r="F80">
-        <v>0.05036746949897206</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.6222820719857334</v>
+      </c>
+      <c r="G80">
+        <v>0.00209869895226746</v>
+      </c>
+      <c r="H80">
+        <v>-0.1013339504871476</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1604142533266251</v>
+        <v>-0.126321556282804</v>
       </c>
       <c r="C81">
-        <v>-0.1032453093761808</v>
+        <v>0.1478574154479676</v>
       </c>
       <c r="D81">
-        <v>0.004518555191602261</v>
+        <v>-0.02983352274014033</v>
       </c>
       <c r="E81">
-        <v>0.1317795423901764</v>
+        <v>0.0424651757861835</v>
       </c>
       <c r="F81">
-        <v>-0.08977287780010931</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.04065553183546661</v>
+      </c>
+      <c r="G81">
+        <v>0.002821612676498008</v>
+      </c>
+      <c r="H81">
+        <v>0.1065209414063573</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02616153224735068</v>
+        <v>-0.02101943236107492</v>
       </c>
       <c r="C83">
-        <v>-0.02562392325255647</v>
+        <v>0.02347598627078126</v>
       </c>
       <c r="D83">
-        <v>-0.02246236845160425</v>
+        <v>0.002485393721680668</v>
       </c>
       <c r="E83">
-        <v>-0.01829273534754915</v>
+        <v>-0.01154213037437334</v>
       </c>
       <c r="F83">
-        <v>0.04612859273157117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01952202793384568</v>
+      </c>
+      <c r="G83">
+        <v>-0.01792916121471705</v>
+      </c>
+      <c r="H83">
+        <v>-0.04589582751970464</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2107027989061405</v>
+        <v>-0.1758512027106418</v>
       </c>
       <c r="C85">
-        <v>-0.1521135486897264</v>
+        <v>0.2242498228702919</v>
       </c>
       <c r="D85">
-        <v>-0.02059879653007743</v>
+        <v>-0.0324106943118528</v>
       </c>
       <c r="E85">
-        <v>0.1728515839114304</v>
+        <v>0.04799292718885948</v>
       </c>
       <c r="F85">
-        <v>-0.1451322269898259</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1096105479073241</v>
+      </c>
+      <c r="G85">
+        <v>0.02707970957728529</v>
+      </c>
+      <c r="H85">
+        <v>0.1155910863868194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.007990711172922249</v>
+        <v>-0.009934831288561465</v>
       </c>
       <c r="C86">
-        <v>0.0009027131113891986</v>
+        <v>0.03517497784201483</v>
       </c>
       <c r="D86">
-        <v>-0.06553229560140832</v>
+        <v>0.006384420047762945</v>
       </c>
       <c r="E86">
-        <v>-0.006376929885918118</v>
+        <v>-0.0009492223894900116</v>
       </c>
       <c r="F86">
-        <v>0.04096481546167094</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02587663411380046</v>
+      </c>
+      <c r="G86">
+        <v>-0.003671735764545925</v>
+      </c>
+      <c r="H86">
+        <v>-0.07661017713251819</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0281404555893061</v>
+        <v>-0.005191180512401059</v>
       </c>
       <c r="C87">
-        <v>-0.01724514636312868</v>
+        <v>0.03911621230507972</v>
       </c>
       <c r="D87">
-        <v>-0.03898124487090259</v>
+        <v>0.007867914735617158</v>
       </c>
       <c r="E87">
-        <v>0.008930053035116873</v>
+        <v>-0.01516502256387598</v>
       </c>
       <c r="F87">
-        <v>0.09387309362237634</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.03722316733324579</v>
+      </c>
+      <c r="G87">
+        <v>-0.0451513844207718</v>
+      </c>
+      <c r="H87">
+        <v>-0.08201657171023459</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0211133371733777</v>
+        <v>-0.04268727693359707</v>
       </c>
       <c r="C88">
-        <v>0.002403912566936791</v>
+        <v>0.01904435578858508</v>
       </c>
       <c r="D88">
-        <v>-0.001050379778849618</v>
+        <v>0.01628865424290046</v>
       </c>
       <c r="E88">
-        <v>0.008561812253957442</v>
+        <v>0.03034409993014397</v>
       </c>
       <c r="F88">
-        <v>-0.02654750217359823</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01236758870501814</v>
+      </c>
+      <c r="G88">
+        <v>0.0005716083302608946</v>
+      </c>
+      <c r="H88">
+        <v>-0.002882005111881623</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.0936199578465837</v>
+        <v>-0.3290937537842599</v>
       </c>
       <c r="C89">
-        <v>-0.05850558582151751</v>
+        <v>-0.2834702215136127</v>
       </c>
       <c r="D89">
-        <v>0.3504633051098513</v>
+        <v>-0.02485150991707997</v>
       </c>
       <c r="E89">
-        <v>-0.06834397904310757</v>
+        <v>-0.011491284084321</v>
       </c>
       <c r="F89">
-        <v>0.09140055098502116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.002976449206121438</v>
+      </c>
+      <c r="G89">
+        <v>0.02618614225352532</v>
+      </c>
+      <c r="H89">
+        <v>0.01251464225587104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08232252186412747</v>
+        <v>-0.2743102884217402</v>
       </c>
       <c r="C90">
-        <v>-0.02056454523736845</v>
+        <v>-0.2625990566663129</v>
       </c>
       <c r="D90">
-        <v>0.3506320632863863</v>
+        <v>-0.02322139756979497</v>
       </c>
       <c r="E90">
-        <v>-0.08993320685753631</v>
+        <v>-0.0151089214688459</v>
       </c>
       <c r="F90">
-        <v>0.0396068022514495</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04812434255444875</v>
+      </c>
+      <c r="G90">
+        <v>0.02859391986726255</v>
+      </c>
+      <c r="H90">
+        <v>0.05799749129690671</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2425043400888163</v>
+        <v>-0.1886198620679256</v>
       </c>
       <c r="C91">
-        <v>-0.1956465668926806</v>
+        <v>0.2112479271265133</v>
       </c>
       <c r="D91">
-        <v>-0.02193211434804576</v>
+        <v>-0.0450849902694665</v>
       </c>
       <c r="E91">
-        <v>0.1544954534085285</v>
+        <v>0.03655746223975873</v>
       </c>
       <c r="F91">
-        <v>-0.222744359067078</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.08621037514523233</v>
+      </c>
+      <c r="G91">
+        <v>0.02753096855186987</v>
+      </c>
+      <c r="H91">
+        <v>0.192120109370548</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.147717809062421</v>
+        <v>-0.2837055246020385</v>
       </c>
       <c r="C92">
-        <v>-0.07424951678953873</v>
+        <v>-0.1709375634867623</v>
       </c>
       <c r="D92">
-        <v>0.4462705617193487</v>
+        <v>-0.06681337959660681</v>
       </c>
       <c r="E92">
-        <v>0.006713378204729536</v>
+        <v>-0.002192185769770695</v>
       </c>
       <c r="F92">
-        <v>-0.1322754419365604</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.04942363013953931</v>
+      </c>
+      <c r="G92">
+        <v>-0.005222722334427931</v>
+      </c>
+      <c r="H92">
+        <v>0.1547682987562761</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08003646333018648</v>
+        <v>-0.3065060980539523</v>
       </c>
       <c r="C93">
-        <v>-0.06730535830724371</v>
+        <v>-0.2564421602829436</v>
       </c>
       <c r="D93">
-        <v>0.4132251538685991</v>
+        <v>-0.03264533421071313</v>
       </c>
       <c r="E93">
-        <v>-0.140088508703809</v>
+        <v>-0.04315268306186811</v>
       </c>
       <c r="F93">
-        <v>0.05462821695973627</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01963787880243228</v>
+      </c>
+      <c r="G93">
+        <v>0.03872814531924257</v>
+      </c>
+      <c r="H93">
+        <v>-0.009998425507930158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2284159809735793</v>
+        <v>-0.2299659251093901</v>
       </c>
       <c r="C94">
-        <v>-0.1958083586967476</v>
+        <v>0.2365344861000196</v>
       </c>
       <c r="D94">
-        <v>-0.01778022216913179</v>
+        <v>-0.03575050935923695</v>
       </c>
       <c r="E94">
-        <v>0.2448481142377085</v>
+        <v>0.05839510069441176</v>
       </c>
       <c r="F94">
-        <v>-0.149012831622959</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1960699478047152</v>
+      </c>
+      <c r="G94">
+        <v>0.002062567180768415</v>
+      </c>
+      <c r="H94">
+        <v>0.4195123236178528</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01054424777542792</v>
+        <v>-0.02889545367813192</v>
       </c>
       <c r="C95">
-        <v>-0.09978292467350153</v>
+        <v>0.1034845687381404</v>
       </c>
       <c r="D95">
-        <v>-0.03094528385490325</v>
+        <v>-0.01167266933863735</v>
       </c>
       <c r="E95">
-        <v>0.03290026026007059</v>
+        <v>-0.09827025750877141</v>
       </c>
       <c r="F95">
-        <v>0.01482826561155012</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.009629477939184368</v>
+      </c>
+      <c r="G95">
+        <v>-0.02569813123526343</v>
+      </c>
+      <c r="H95">
+        <v>-0.03833812461506953</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1202725000337259</v>
+        <v>-0.1838549255080213</v>
       </c>
       <c r="C98">
-        <v>-0.1243288493911871</v>
+        <v>0.07046360479125294</v>
       </c>
       <c r="D98">
-        <v>0.02240328873735853</v>
+        <v>-0.03513108326292829</v>
       </c>
       <c r="E98">
-        <v>-0.07298075028715711</v>
+        <v>-0.06453002749089369</v>
       </c>
       <c r="F98">
-        <v>0.1862488712307897</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.04134063416430091</v>
+      </c>
+      <c r="G98">
+        <v>-0.03294211064184928</v>
+      </c>
+      <c r="H98">
+        <v>-0.3405559371978205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.01073333299314533</v>
+        <v>-0.006545340135732314</v>
       </c>
       <c r="C101">
-        <v>0.001062732901523545</v>
+        <v>0.01856361822487004</v>
       </c>
       <c r="D101">
-        <v>-0.04837527081148221</v>
+        <v>0.005431141667390293</v>
       </c>
       <c r="E101">
-        <v>0.02450751101045479</v>
+        <v>-0.01573539878691382</v>
       </c>
       <c r="F101">
-        <v>0.1752035206871504</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.04858974849321479</v>
+      </c>
+      <c r="G101">
+        <v>-0.06240842943826052</v>
+      </c>
+      <c r="H101">
+        <v>-0.007578214090662678</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1032601079996174</v>
+        <v>-0.09296609550145722</v>
       </c>
       <c r="C102">
-        <v>-0.07197344029308814</v>
+        <v>0.1123066907828736</v>
       </c>
       <c r="D102">
-        <v>-0.007279720730333561</v>
+        <v>-0.01000391748860451</v>
       </c>
       <c r="E102">
-        <v>0.08840526987764406</v>
+        <v>0.02617140376630089</v>
       </c>
       <c r="F102">
-        <v>-0.09062795383102397</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.05427243737969769</v>
+      </c>
+      <c r="G102">
+        <v>0.004740620155592753</v>
+      </c>
+      <c r="H102">
+        <v>0.07121299682724672</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04817864053756365</v>
+        <v>-0.01172980987745623</v>
       </c>
       <c r="C103">
-        <v>-0.01680971765512709</v>
+        <v>0.01921494428513775</v>
       </c>
       <c r="D103">
-        <v>-0.01536194900505589</v>
+        <v>-0.001672107481571514</v>
       </c>
       <c r="E103">
-        <v>0.04414299402258302</v>
+        <v>0.01255065642675402</v>
       </c>
       <c r="F103">
-        <v>-0.01185293453957082</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.009769159583203258</v>
+      </c>
+      <c r="G103">
+        <v>-0.005199375611560753</v>
+      </c>
+      <c r="H103">
+        <v>0.01758897317850294</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1141788655472484</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.01564507511277253</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.979190036166627</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.05318802915621985</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.0614436689623263</v>
+      </c>
+      <c r="G104">
+        <v>-0.09236604850115726</v>
+      </c>
+      <c r="H104">
+        <v>0.05989729265246623</v>
       </c>
     </row>
   </sheetData>
